--- a/Public/template/template_lsbzsr_hz.xlsx
+++ b/Public/template/template_lsbzsr_hz.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr hidePivotFieldList="1"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="23910" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="确认学费消费表" sheetId="1" r:id="rId1"/>
@@ -19,15 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314">
   <si>
     <t>老师确认收入</t>
   </si>
   <si>
     <t>序号</t>
-  </si>
-  <si>
-    <t>年份</t>
   </si>
   <si>
     <t>月份</t>
@@ -971,12 +968,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="[$-409]mmm/yy;@"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="[$-409]mmm/yy;@"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1037,17 +1034,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1065,19 +1054,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1088,38 +1077,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1148,9 +1116,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1158,7 +1140,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1166,7 +1163,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1199,13 +1196,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1223,7 +1214,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1235,13 +1244,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1253,7 +1298,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1265,13 +1316,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1289,31 +1352,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1325,55 +1364,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1422,13 +1419,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1457,39 +1482,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1505,17 +1497,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1527,10 +1524,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1539,133 +1536,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1673,22 +1670,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
@@ -2071,40 +2068,40 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="22.5" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="4.625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="4.875" style="10" customWidth="1"/>
-    <col min="4" max="4" width="14" style="11" customWidth="1"/>
-    <col min="5" max="5" width="7.75" style="11" customWidth="1"/>
-    <col min="6" max="6" width="21.125" style="11" customWidth="1"/>
-    <col min="7" max="7" width="8" style="11" customWidth="1"/>
-    <col min="8" max="8" width="18.875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="8.375" style="11" customWidth="1"/>
-    <col min="10" max="10" width="12.5" style="11" customWidth="1"/>
-    <col min="11" max="11" width="9.375" style="11" customWidth="1"/>
-    <col min="12" max="12" width="11.375" style="10" customWidth="1"/>
-    <col min="13" max="13" width="12.75" style="10" customWidth="1"/>
-    <col min="14" max="17" width="8" style="10"/>
-    <col min="18" max="18" width="16.25" style="10" customWidth="1"/>
-    <col min="19" max="16384" width="8" style="10"/>
+    <col min="1" max="1" width="4.625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="4.875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="14" style="11" customWidth="1"/>
+    <col min="4" max="4" width="7.75" style="11" customWidth="1"/>
+    <col min="5" max="5" width="21.125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="8" style="11" customWidth="1"/>
+    <col min="7" max="7" width="18.875" style="11" customWidth="1"/>
+    <col min="8" max="8" width="8.375" style="11" customWidth="1"/>
+    <col min="9" max="9" width="12.5" style="11" customWidth="1"/>
+    <col min="10" max="10" width="9.375" style="11" customWidth="1"/>
+    <col min="11" max="11" width="11.375" style="10" customWidth="1"/>
+    <col min="12" max="12" width="12.75" style="10" customWidth="1"/>
+    <col min="13" max="16" width="8" style="10"/>
+    <col min="17" max="17" width="16.25" style="10" customWidth="1"/>
+    <col min="18" max="16384" width="8" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" ht="34.5" customHeight="1" spans="1:18">
+    <row r="1" ht="34.5" customHeight="1" spans="1:17">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="13"/>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
@@ -2113,14 +2110,13 @@
       <c r="H1" s="13"/>
       <c r="I1" s="13"/>
       <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="N1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="17"/>
       <c r="O1" s="17"/>
       <c r="P1" s="17"/>
       <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-    </row>
-    <row r="2" ht="27" spans="1:11">
+    </row>
+    <row r="2" ht="27" spans="1:10">
       <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
@@ -2133,26 +2129,23 @@
       <c r="D2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="15" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="15" t="s">
         <v>9</v>
       </c>
       <c r="J2" s="15" t="s">
         <v>10</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -2167,8 +2160,8 @@
   </sheetData>
   <sheetProtection autoFilter="0"/>
   <mergeCells count="2">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.354166666666667" bottom="0.354166666666667" header="0.313888888888889" footer="0.313888888888889"/>
@@ -2194,1371 +2187,1371 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>22</v>
       </c>
       <c r="N1" s="8"/>
       <c r="O1" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>24</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="M2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="O2" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>34</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>35</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="8" t="s">
         <v>38</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>39</v>
       </c>
       <c r="L3" s="8"/>
       <c r="M3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>41</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="H4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="K4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F5" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="H5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="L5" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="H6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="K6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="O6" s="8" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>60</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>61</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F7" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="H7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K7" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="L7" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="O7" s="8" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="C8" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="D8" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="E8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="8" t="s">
+      <c r="G8" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="H8" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="I8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="I8" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" s="8" t="s">
+      <c r="K8" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="L8" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="L8" s="8" t="s">
+      <c r="M8" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="N8" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="M8" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>76</v>
-      </c>
       <c r="O8" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G9" s="8" t="s">
+      <c r="H9" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K9" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="H9" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="K9" s="8" t="s">
+      <c r="L9" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="L9" s="8" t="s">
-        <v>80</v>
-      </c>
       <c r="M9" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G10" s="8" t="s">
+      <c r="H10" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K10" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="H10" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="K10" s="8" t="s">
+      <c r="L10" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="L10" s="8" t="s">
-        <v>84</v>
-      </c>
       <c r="M10" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>85</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>86</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F11" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="H11" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="H11" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="J11" s="8" t="s">
+      <c r="K11" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="L11" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="L11" s="8" t="s">
-        <v>91</v>
-      </c>
       <c r="M11" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>92</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>93</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G12" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K12" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="H12" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="K12" s="8" t="s">
+      <c r="L12" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="L12" s="8" t="s">
-        <v>96</v>
-      </c>
       <c r="M12" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>97</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>98</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K13" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="L13" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="L13" s="8" t="s">
-        <v>100</v>
-      </c>
       <c r="M13" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O13" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>101</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>102</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F14" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G14" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="H14" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="I14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="I14" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="J14" s="8" t="s">
+      <c r="K14" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="L14" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="L14" s="8" t="s">
-        <v>108</v>
-      </c>
       <c r="M14" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N14" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O14" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>109</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>110</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G15" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="K15" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="H15" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="K15" s="8" t="s">
+      <c r="L15" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="L15" s="8" t="s">
-        <v>113</v>
-      </c>
       <c r="M15" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O15" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>114</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>115</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G16" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="K16" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="H16" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="K16" s="8" t="s">
+      <c r="L16" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="L16" s="8" t="s">
-        <v>118</v>
-      </c>
       <c r="M16" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N16" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O16" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>119</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>120</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G17" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="H17" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="J17" s="8" t="s">
+      <c r="K17" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="K17" s="8" t="s">
+      <c r="L17" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="L17" s="8" t="s">
-        <v>124</v>
-      </c>
       <c r="M17" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>125</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>126</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F18" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G18" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="H18" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="K18" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="H18" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="K18" s="8" t="s">
+      <c r="L18" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="L18" s="8" t="s">
+      <c r="M18" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="M18" s="8" t="s">
+      <c r="N18" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="N18" s="8" t="s">
-        <v>132</v>
-      </c>
       <c r="O18" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G19" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="K19" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="H19" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="K19" s="8" t="s">
+      <c r="L19" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="L19" s="8" t="s">
-        <v>136</v>
-      </c>
       <c r="M19" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="N19" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="N19" s="8" t="s">
-        <v>132</v>
-      </c>
       <c r="O19" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>137</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>138</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G20" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J20" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="H20" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="J20" s="8" t="s">
+      <c r="K20" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="K20" s="8" t="s">
+      <c r="L20" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="L20" s="8" t="s">
-        <v>142</v>
-      </c>
       <c r="M20" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="N20" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="N20" s="8" t="s">
-        <v>132</v>
-      </c>
       <c r="O20" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F21" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G21" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="H21" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="K21" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="L21" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="N21" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="I21" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="L21" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="M21" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="N21" s="8" t="s">
-        <v>132</v>
-      </c>
       <c r="O21" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G22" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="K22" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="L22" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="N22" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="I22" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="K22" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="L22" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="M22" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="N22" s="8" t="s">
-        <v>132</v>
-      </c>
       <c r="O22" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G23" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="K23" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="L23" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="N23" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="I23" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="K23" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="L23" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="M23" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="N23" s="8" t="s">
-        <v>132</v>
-      </c>
       <c r="O23" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>156</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>157</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H24" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="N24" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="I24" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="J24" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="K24" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="L24" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="M24" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="N24" s="8" t="s">
-        <v>132</v>
-      </c>
       <c r="O24" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G25" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="K25" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="H25" s="8" t="s">
+      <c r="L25" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="N25" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="I25" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="K25" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="L25" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="M25" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="N25" s="8" t="s">
-        <v>132</v>
-      </c>
       <c r="O25" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="C26" s="8" t="s">
         <v>166</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>167</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G26" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="J26" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="H26" s="8" t="s">
+      <c r="K26" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="M26" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="N26" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="I26" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="J26" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="K26" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="L26" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="M26" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="N26" s="8" t="s">
-        <v>132</v>
-      </c>
       <c r="O26" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B27" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>166</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>167</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F27" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="G27" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="H27" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="K27" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="H27" s="8" t="s">
+      <c r="L27" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="N27" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="I27" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="J27" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="K27" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="L27" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="M27" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="N27" s="8" t="s">
-        <v>132</v>
-      </c>
       <c r="O27" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>177</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>178</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F28" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="G28" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="H28" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="J28" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="H28" s="8" t="s">
+      <c r="K28" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="M28" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="N28" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="I28" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="J28" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="K28" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="L28" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="M28" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="N28" s="8" t="s">
-        <v>132</v>
-      </c>
       <c r="O28" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G29" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="K29" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="H29" s="8" t="s">
+      <c r="L29" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="M29" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="N29" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="I29" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="J29" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="K29" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="L29" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="M29" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="N29" s="8" t="s">
-        <v>132</v>
-      </c>
       <c r="O29" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G30" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="J30" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="H30" s="8" t="s">
+      <c r="K30" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="M30" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="N30" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="I30" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="J30" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="K30" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="L30" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="M30" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="N30" s="8" t="s">
-        <v>132</v>
-      </c>
       <c r="O30" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F31" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="G31" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="G31" s="8" t="s">
+      <c r="H31" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="K31" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="H31" s="8" t="s">
+      <c r="L31" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="M31" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="N31" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="I31" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="J31" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="K31" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="L31" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="M31" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="N31" s="8" t="s">
-        <v>132</v>
-      </c>
       <c r="O31" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -3590,98 +3583,98 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" t="s">
         <v>200</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>201</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>202</v>
       </c>
-      <c r="F1" t="s">
-        <v>203</v>
-      </c>
       <c r="H1" t="s">
+        <v>200</v>
+      </c>
+      <c r="I1" t="s">
         <v>201</v>
-      </c>
-      <c r="I1" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C2">
+        <v>53</v>
+      </c>
+      <c r="F2" t="s">
         <v>205</v>
       </c>
-      <c r="C2">
-        <v>53</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>206</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>204</v>
+      </c>
+      <c r="I2">
+        <v>53</v>
+      </c>
+      <c r="M2" t="s">
+        <v>199</v>
+      </c>
+      <c r="N2" t="s">
         <v>207</v>
       </c>
-      <c r="H2" t="s">
-        <v>205</v>
-      </c>
-      <c r="I2">
-        <v>53</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="P2" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="N2" t="s">
-        <v>208</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B3" t="s">
         <v>209</v>
-      </c>
-      <c r="B3" t="s">
-        <v>210</v>
       </c>
       <c r="C3">
         <v>42</v>
       </c>
       <c r="F3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I3">
         <v>53</v>
       </c>
       <c r="M3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O3">
         <v>53</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R3" s="6">
         <v>53</v>
@@ -3689,40 +3682,40 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B4" t="s">
         <v>212</v>
-      </c>
-      <c r="B4" t="s">
-        <v>213</v>
       </c>
       <c r="C4">
         <v>32</v>
       </c>
       <c r="F4" t="s">
+        <v>213</v>
+      </c>
+      <c r="G4" t="s">
+        <v>206</v>
+      </c>
+      <c r="H4" t="s">
+        <v>204</v>
+      </c>
+      <c r="I4">
+        <v>53</v>
+      </c>
+      <c r="M4" t="s">
         <v>214</v>
       </c>
-      <c r="G4" t="s">
-        <v>207</v>
-      </c>
-      <c r="H4" t="s">
-        <v>205</v>
-      </c>
-      <c r="I4">
-        <v>53</v>
-      </c>
-      <c r="M4" t="s">
-        <v>215</v>
-      </c>
       <c r="N4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O4">
         <v>53</v>
       </c>
       <c r="P4" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q4" s="3" t="s">
         <v>209</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>210</v>
       </c>
       <c r="R4" s="6">
         <v>42</v>
@@ -3730,40 +3723,40 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B5" t="s">
         <v>216</v>
-      </c>
-      <c r="B5" t="s">
-        <v>217</v>
       </c>
       <c r="C5">
         <v>13</v>
       </c>
       <c r="F5" t="s">
+        <v>217</v>
+      </c>
+      <c r="G5" t="s">
+        <v>206</v>
+      </c>
+      <c r="H5" t="s">
+        <v>204</v>
+      </c>
+      <c r="I5">
+        <v>53</v>
+      </c>
+      <c r="M5" t="s">
         <v>218</v>
       </c>
-      <c r="G5" t="s">
-        <v>207</v>
-      </c>
-      <c r="H5" t="s">
-        <v>205</v>
-      </c>
-      <c r="I5">
-        <v>53</v>
-      </c>
-      <c r="M5" t="s">
-        <v>219</v>
-      </c>
       <c r="N5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O5">
         <v>53</v>
       </c>
       <c r="P5" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q5" s="3" t="s">
         <v>212</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>213</v>
       </c>
       <c r="R5" s="6">
         <v>32</v>
@@ -3771,40 +3764,40 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C6">
         <v>42</v>
       </c>
       <c r="F6" t="s">
+        <v>220</v>
+      </c>
+      <c r="G6" t="s">
+        <v>206</v>
+      </c>
+      <c r="H6" t="s">
+        <v>204</v>
+      </c>
+      <c r="I6">
+        <v>53</v>
+      </c>
+      <c r="M6" t="s">
         <v>221</v>
       </c>
-      <c r="G6" t="s">
-        <v>207</v>
-      </c>
-      <c r="H6" t="s">
-        <v>205</v>
-      </c>
-      <c r="I6">
-        <v>53</v>
-      </c>
-      <c r="M6" t="s">
-        <v>222</v>
-      </c>
       <c r="N6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O6">
         <v>53</v>
       </c>
       <c r="P6" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q6" s="3" t="s">
         <v>216</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>217</v>
       </c>
       <c r="R6" s="6">
         <v>13</v>
@@ -3812,40 +3805,40 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C7">
         <v>42</v>
       </c>
       <c r="F7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H7" t="s">
+        <v>204</v>
+      </c>
+      <c r="I7">
+        <v>53</v>
+      </c>
+      <c r="M7" t="s">
         <v>224</v>
       </c>
-      <c r="G7" t="s">
-        <v>207</v>
-      </c>
-      <c r="H7" t="s">
-        <v>205</v>
-      </c>
-      <c r="I7">
-        <v>53</v>
-      </c>
-      <c r="M7" t="s">
-        <v>225</v>
-      </c>
       <c r="N7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O7">
         <v>53</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="R7" s="6">
         <v>42</v>
@@ -3853,40 +3846,40 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" t="s">
+        <v>225</v>
+      </c>
+      <c r="B8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C8">
+        <v>53</v>
+      </c>
+      <c r="F8" t="s">
         <v>226</v>
       </c>
-      <c r="B8" t="s">
-        <v>205</v>
-      </c>
-      <c r="C8">
-        <v>53</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
+        <v>206</v>
+      </c>
+      <c r="H8" t="s">
+        <v>204</v>
+      </c>
+      <c r="I8">
+        <v>53</v>
+      </c>
+      <c r="M8" t="s">
         <v>227</v>
       </c>
-      <c r="G8" t="s">
-        <v>207</v>
-      </c>
-      <c r="H8" t="s">
-        <v>205</v>
-      </c>
-      <c r="I8">
-        <v>53</v>
-      </c>
-      <c r="M8" t="s">
-        <v>228</v>
-      </c>
       <c r="N8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O8">
         <v>53</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="R8" s="6">
         <v>42</v>
@@ -3894,40 +3887,40 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C9">
         <v>32</v>
       </c>
       <c r="F9" t="s">
+        <v>229</v>
+      </c>
+      <c r="G9" t="s">
+        <v>206</v>
+      </c>
+      <c r="H9" t="s">
+        <v>204</v>
+      </c>
+      <c r="I9">
+        <v>53</v>
+      </c>
+      <c r="M9" t="s">
         <v>230</v>
       </c>
-      <c r="G9" t="s">
-        <v>207</v>
-      </c>
-      <c r="H9" t="s">
-        <v>205</v>
-      </c>
-      <c r="I9">
-        <v>53</v>
-      </c>
-      <c r="M9" t="s">
-        <v>231</v>
-      </c>
       <c r="N9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O9">
         <v>53</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R9" s="6">
         <v>53</v>
@@ -3935,40 +3928,40 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C10">
         <v>42</v>
       </c>
       <c r="F10" t="s">
+        <v>232</v>
+      </c>
+      <c r="G10" t="s">
+        <v>206</v>
+      </c>
+      <c r="H10" t="s">
+        <v>204</v>
+      </c>
+      <c r="I10">
+        <v>53</v>
+      </c>
+      <c r="M10" t="s">
         <v>233</v>
       </c>
-      <c r="G10" t="s">
-        <v>207</v>
-      </c>
-      <c r="H10" t="s">
-        <v>205</v>
-      </c>
-      <c r="I10">
-        <v>53</v>
-      </c>
-      <c r="M10" t="s">
-        <v>234</v>
-      </c>
       <c r="N10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O10">
         <v>53</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="R10" s="6">
         <v>32</v>
@@ -3976,40 +3969,40 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C11">
         <v>42</v>
       </c>
       <c r="F11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I11">
         <v>53</v>
       </c>
       <c r="M11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O11">
         <v>53</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="R11" s="6">
         <v>42</v>
@@ -4017,31 +4010,31 @@
     </row>
     <row r="12" spans="6:18">
       <c r="F12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I12">
         <v>53</v>
       </c>
       <c r="M12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O12">
         <v>42</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="R12" s="6">
         <v>42</v>
@@ -4049,22 +4042,22 @@
     </row>
     <row r="13" spans="6:15">
       <c r="F13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I13">
         <v>53</v>
       </c>
       <c r="M13" t="s">
+        <v>208</v>
+      </c>
+      <c r="N13" t="s">
         <v>209</v>
-      </c>
-      <c r="N13" t="s">
-        <v>210</v>
       </c>
       <c r="O13">
         <v>42</v>
@@ -4072,22 +4065,22 @@
     </row>
     <row r="14" spans="6:15">
       <c r="F14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I14">
         <v>53</v>
       </c>
       <c r="M14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O14">
         <v>42</v>
@@ -4095,22 +4088,22 @@
     </row>
     <row r="15" spans="6:15">
       <c r="F15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I15">
         <v>53</v>
       </c>
       <c r="M15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O15">
         <v>42</v>
@@ -4118,22 +4111,22 @@
     </row>
     <row r="16" spans="6:15">
       <c r="F16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I16">
         <v>53</v>
       </c>
       <c r="M16" t="s">
+        <v>211</v>
+      </c>
+      <c r="N16" t="s">
         <v>212</v>
-      </c>
-      <c r="N16" t="s">
-        <v>213</v>
       </c>
       <c r="O16">
         <v>32</v>
@@ -4141,22 +4134,22 @@
     </row>
     <row r="17" spans="6:15">
       <c r="F17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I17">
         <v>53</v>
       </c>
       <c r="M17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O17">
         <v>32</v>
@@ -4164,22 +4157,22 @@
     </row>
     <row r="18" spans="6:15">
       <c r="F18" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I18">
         <v>53</v>
       </c>
       <c r="M18" t="s">
+        <v>215</v>
+      </c>
+      <c r="N18" t="s">
         <v>216</v>
-      </c>
-      <c r="N18" t="s">
-        <v>217</v>
       </c>
       <c r="O18">
         <v>13</v>
@@ -4187,13 +4180,13 @@
     </row>
     <row r="19" spans="6:9">
       <c r="F19" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I19">
         <v>53</v>
@@ -4201,13 +4194,13 @@
     </row>
     <row r="20" spans="6:9">
       <c r="F20" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I20">
         <v>53</v>
@@ -4215,13 +4208,13 @@
     </row>
     <row r="21" spans="6:9">
       <c r="F21" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G21" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I21">
         <v>53</v>
@@ -4229,13 +4222,13 @@
     </row>
     <row r="22" spans="6:9">
       <c r="F22" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I22">
         <v>53</v>
@@ -4243,13 +4236,13 @@
     </row>
     <row r="23" spans="6:9">
       <c r="F23" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H23" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I23">
         <v>53</v>
@@ -4257,13 +4250,13 @@
     </row>
     <row r="24" spans="6:9">
       <c r="F24" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G24" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H24" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I24">
         <v>53</v>
@@ -4271,13 +4264,13 @@
     </row>
     <row r="25" spans="6:9">
       <c r="F25" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H25" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I25">
         <v>53</v>
@@ -4285,13 +4278,13 @@
     </row>
     <row r="26" spans="6:9">
       <c r="F26" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G26" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H26" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I26">
         <v>53</v>
@@ -4299,13 +4292,13 @@
     </row>
     <row r="27" spans="6:9">
       <c r="F27" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I27">
         <v>53</v>
@@ -4313,13 +4306,13 @@
     </row>
     <row r="28" spans="6:9">
       <c r="F28" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I28">
         <v>53</v>
@@ -4327,13 +4320,13 @@
     </row>
     <row r="29" spans="6:9">
       <c r="F29" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I29">
         <v>53</v>
@@ -4341,13 +4334,13 @@
     </row>
     <row r="30" spans="6:9">
       <c r="F30" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G30" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H30" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I30">
         <v>53</v>
@@ -4355,13 +4348,13 @@
     </row>
     <row r="31" spans="6:9">
       <c r="F31" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G31" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H31" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I31">
         <v>53</v>
@@ -4369,13 +4362,13 @@
     </row>
     <row r="32" spans="6:9">
       <c r="F32" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H32" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I32">
         <v>53</v>
@@ -4383,13 +4376,13 @@
     </row>
     <row r="33" spans="6:9">
       <c r="F33" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G33" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H33" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I33">
         <v>53</v>
@@ -4397,13 +4390,13 @@
     </row>
     <row r="34" spans="6:9">
       <c r="F34" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G34" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H34" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I34">
         <v>53</v>
@@ -4411,13 +4404,13 @@
     </row>
     <row r="35" spans="6:9">
       <c r="F35" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G35" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H35" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I35">
         <v>53</v>
@@ -4425,13 +4418,13 @@
     </row>
     <row r="36" spans="6:9">
       <c r="F36" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G36" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H36" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I36">
         <v>53</v>
@@ -4439,13 +4432,13 @@
     </row>
     <row r="37" spans="6:9">
       <c r="F37" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G37" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H37" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I37">
         <v>42</v>
@@ -4453,13 +4446,13 @@
     </row>
     <row r="38" spans="6:9">
       <c r="F38" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G38" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H38" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I38">
         <v>42</v>
@@ -4467,13 +4460,13 @@
     </row>
     <row r="39" spans="6:9">
       <c r="F39" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G39" t="s">
+        <v>208</v>
+      </c>
+      <c r="H39" t="s">
         <v>209</v>
-      </c>
-      <c r="H39" t="s">
-        <v>210</v>
       </c>
       <c r="I39">
         <v>42</v>
@@ -4481,13 +4474,13 @@
     </row>
     <row r="40" spans="6:9">
       <c r="F40" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G40" t="s">
+        <v>208</v>
+      </c>
+      <c r="H40" t="s">
         <v>209</v>
-      </c>
-      <c r="H40" t="s">
-        <v>210</v>
       </c>
       <c r="I40">
         <v>42</v>
@@ -4495,13 +4488,13 @@
     </row>
     <row r="41" spans="6:9">
       <c r="F41" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G41" t="s">
+        <v>208</v>
+      </c>
+      <c r="H41" t="s">
         <v>209</v>
-      </c>
-      <c r="H41" t="s">
-        <v>210</v>
       </c>
       <c r="I41">
         <v>42</v>
@@ -4509,13 +4502,13 @@
     </row>
     <row r="42" spans="6:9">
       <c r="F42" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G42" t="s">
+        <v>208</v>
+      </c>
+      <c r="H42" t="s">
         <v>209</v>
-      </c>
-      <c r="H42" t="s">
-        <v>210</v>
       </c>
       <c r="I42">
         <v>42</v>
@@ -4523,13 +4516,13 @@
     </row>
     <row r="43" spans="6:9">
       <c r="F43" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G43" t="s">
+        <v>208</v>
+      </c>
+      <c r="H43" t="s">
         <v>209</v>
-      </c>
-      <c r="H43" t="s">
-        <v>210</v>
       </c>
       <c r="I43">
         <v>42</v>
@@ -4537,13 +4530,13 @@
     </row>
     <row r="44" spans="6:9">
       <c r="F44" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G44" t="s">
+        <v>208</v>
+      </c>
+      <c r="H44" t="s">
         <v>209</v>
-      </c>
-      <c r="H44" t="s">
-        <v>210</v>
       </c>
       <c r="I44">
         <v>42</v>
@@ -4551,13 +4544,13 @@
     </row>
     <row r="45" spans="6:9">
       <c r="F45" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G45" t="s">
+        <v>208</v>
+      </c>
+      <c r="H45" t="s">
         <v>209</v>
-      </c>
-      <c r="H45" t="s">
-        <v>210</v>
       </c>
       <c r="I45">
         <v>42</v>
@@ -4565,13 +4558,13 @@
     </row>
     <row r="46" spans="6:9">
       <c r="F46" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G46" t="s">
+        <v>208</v>
+      </c>
+      <c r="H46" t="s">
         <v>209</v>
-      </c>
-      <c r="H46" t="s">
-        <v>210</v>
       </c>
       <c r="I46">
         <v>42</v>
@@ -4579,13 +4572,13 @@
     </row>
     <row r="47" spans="6:9">
       <c r="F47" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G47" t="s">
+        <v>208</v>
+      </c>
+      <c r="H47" t="s">
         <v>209</v>
-      </c>
-      <c r="H47" t="s">
-        <v>210</v>
       </c>
       <c r="I47">
         <v>42</v>
@@ -4593,13 +4586,13 @@
     </row>
     <row r="48" spans="6:9">
       <c r="F48" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G48" t="s">
+        <v>208</v>
+      </c>
+      <c r="H48" t="s">
         <v>209</v>
-      </c>
-      <c r="H48" t="s">
-        <v>210</v>
       </c>
       <c r="I48">
         <v>42</v>
@@ -4607,13 +4600,13 @@
     </row>
     <row r="49" spans="6:9">
       <c r="F49" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G49" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H49" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I49">
         <v>42</v>
@@ -4621,13 +4614,13 @@
     </row>
     <row r="50" spans="6:9">
       <c r="F50" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G50" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H50" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I50">
         <v>42</v>
@@ -4635,13 +4628,13 @@
     </row>
     <row r="51" spans="6:9">
       <c r="F51" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G51" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H51" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I51">
         <v>42</v>
@@ -4649,13 +4642,13 @@
     </row>
     <row r="52" spans="6:9">
       <c r="F52" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G52" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I52">
         <v>42</v>
@@ -4663,13 +4656,13 @@
     </row>
     <row r="53" spans="6:9">
       <c r="F53" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G53" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H53" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I53">
         <v>42</v>
@@ -4677,13 +4670,13 @@
     </row>
     <row r="54" spans="6:9">
       <c r="F54" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G54" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H54" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I54">
         <v>42</v>
@@ -4691,13 +4684,13 @@
     </row>
     <row r="55" spans="6:9">
       <c r="F55" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G55" t="s">
+        <v>211</v>
+      </c>
+      <c r="H55" t="s">
         <v>212</v>
-      </c>
-      <c r="H55" t="s">
-        <v>213</v>
       </c>
       <c r="I55">
         <v>32</v>
@@ -4705,13 +4698,13 @@
     </row>
     <row r="56" spans="6:9">
       <c r="F56" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G56" t="s">
+        <v>211</v>
+      </c>
+      <c r="H56" t="s">
         <v>212</v>
-      </c>
-      <c r="H56" t="s">
-        <v>213</v>
       </c>
       <c r="I56">
         <v>32</v>
@@ -4719,13 +4712,13 @@
     </row>
     <row r="57" spans="6:9">
       <c r="F57" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G57" t="s">
+        <v>211</v>
+      </c>
+      <c r="H57" t="s">
         <v>212</v>
-      </c>
-      <c r="H57" t="s">
-        <v>213</v>
       </c>
       <c r="I57">
         <v>32</v>
@@ -4733,13 +4726,13 @@
     </row>
     <row r="58" spans="6:9">
       <c r="F58" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G58" t="s">
+        <v>211</v>
+      </c>
+      <c r="H58" t="s">
         <v>212</v>
-      </c>
-      <c r="H58" t="s">
-        <v>213</v>
       </c>
       <c r="I58">
         <v>32</v>
@@ -4747,13 +4740,13 @@
     </row>
     <row r="59" spans="6:9">
       <c r="F59" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G59" t="s">
+        <v>211</v>
+      </c>
+      <c r="H59" t="s">
         <v>212</v>
-      </c>
-      <c r="H59" t="s">
-        <v>213</v>
       </c>
       <c r="I59">
         <v>32</v>
@@ -4761,13 +4754,13 @@
     </row>
     <row r="60" spans="6:9">
       <c r="F60" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G60" t="s">
+        <v>211</v>
+      </c>
+      <c r="H60" t="s">
         <v>212</v>
-      </c>
-      <c r="H60" t="s">
-        <v>213</v>
       </c>
       <c r="I60">
         <v>32</v>
@@ -4775,13 +4768,13 @@
     </row>
     <row r="61" spans="6:9">
       <c r="F61" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G61" t="s">
+        <v>211</v>
+      </c>
+      <c r="H61" t="s">
         <v>212</v>
-      </c>
-      <c r="H61" t="s">
-        <v>213</v>
       </c>
       <c r="I61">
         <v>32</v>
@@ -4789,13 +4782,13 @@
     </row>
     <row r="62" spans="6:9">
       <c r="F62" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G62" t="s">
+        <v>211</v>
+      </c>
+      <c r="H62" t="s">
         <v>212</v>
-      </c>
-      <c r="H62" t="s">
-        <v>213</v>
       </c>
       <c r="I62">
         <v>32</v>
@@ -4803,13 +4796,13 @@
     </row>
     <row r="63" spans="6:9">
       <c r="F63" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G63" t="s">
+        <v>211</v>
+      </c>
+      <c r="H63" t="s">
         <v>212</v>
-      </c>
-      <c r="H63" t="s">
-        <v>213</v>
       </c>
       <c r="I63">
         <v>32</v>
@@ -4817,13 +4810,13 @@
     </row>
     <row r="64" spans="6:9">
       <c r="F64" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G64" t="s">
+        <v>211</v>
+      </c>
+      <c r="H64" t="s">
         <v>212</v>
-      </c>
-      <c r="H64" t="s">
-        <v>213</v>
       </c>
       <c r="I64">
         <v>32</v>
@@ -4831,13 +4824,13 @@
     </row>
     <row r="65" spans="6:9">
       <c r="F65" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G65" t="s">
+        <v>211</v>
+      </c>
+      <c r="H65" t="s">
         <v>212</v>
-      </c>
-      <c r="H65" t="s">
-        <v>213</v>
       </c>
       <c r="I65">
         <v>32</v>
@@ -4845,13 +4838,13 @@
     </row>
     <row r="66" spans="6:9">
       <c r="F66" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G66" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H66" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I66">
         <v>53</v>
@@ -4859,13 +4852,13 @@
     </row>
     <row r="67" spans="6:9">
       <c r="F67" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G67" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H67" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I67">
         <v>53</v>
@@ -4873,13 +4866,13 @@
     </row>
     <row r="68" spans="6:9">
       <c r="F68" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G68" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H68" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I68">
         <v>53</v>
@@ -4887,13 +4880,13 @@
     </row>
     <row r="69" spans="6:9">
       <c r="F69" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G69" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H69" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I69">
         <v>32</v>
@@ -4901,13 +4894,13 @@
     </row>
     <row r="70" spans="6:9">
       <c r="F70" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G70" t="s">
+        <v>215</v>
+      </c>
+      <c r="H70" t="s">
         <v>216</v>
-      </c>
-      <c r="H70" t="s">
-        <v>217</v>
       </c>
       <c r="I70">
         <v>13</v>
@@ -4915,13 +4908,13 @@
     </row>
     <row r="71" spans="6:9">
       <c r="F71" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G71" t="s">
+        <v>215</v>
+      </c>
+      <c r="H71" t="s">
         <v>216</v>
-      </c>
-      <c r="H71" t="s">
-        <v>217</v>
       </c>
       <c r="I71">
         <v>13</v>
@@ -4929,13 +4922,13 @@
     </row>
     <row r="72" spans="6:9">
       <c r="F72" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G72" t="s">
+        <v>215</v>
+      </c>
+      <c r="H72" t="s">
         <v>216</v>
-      </c>
-      <c r="H72" t="s">
-        <v>217</v>
       </c>
       <c r="I72">
         <v>13</v>
@@ -4943,13 +4936,13 @@
     </row>
     <row r="73" spans="6:9">
       <c r="F73" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G73" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H73" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I73">
         <v>42</v>
@@ -4957,13 +4950,13 @@
     </row>
     <row r="75" spans="6:9">
       <c r="F75" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G75" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H75" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I75">
         <v>53</v>
@@ -4971,13 +4964,13 @@
     </row>
     <row r="76" spans="6:9">
       <c r="F76" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G76" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H76" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I76">
         <v>53</v>
@@ -4985,13 +4978,13 @@
     </row>
     <row r="77" spans="6:9">
       <c r="F77" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G77" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H77" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I77">
         <v>53</v>
@@ -4999,13 +4992,13 @@
     </row>
     <row r="78" spans="6:9">
       <c r="F78" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G78" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H78" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I78">
         <v>53</v>
@@ -5013,13 +5006,13 @@
     </row>
     <row r="79" spans="6:9">
       <c r="F79" t="s">
+        <v>301</v>
+      </c>
+      <c r="G79" t="s">
         <v>302</v>
       </c>
-      <c r="G79" t="s">
-        <v>303</v>
-      </c>
       <c r="H79" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I79">
         <v>32</v>
@@ -5027,13 +5020,13 @@
     </row>
     <row r="80" spans="6:9">
       <c r="F80" t="s">
+        <v>303</v>
+      </c>
+      <c r="G80" t="s">
         <v>304</v>
       </c>
-      <c r="G80" t="s">
-        <v>305</v>
-      </c>
       <c r="H80" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I80">
         <v>42</v>
@@ -5041,13 +5034,13 @@
     </row>
     <row r="81" spans="6:9">
       <c r="F81" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G81" t="s">
+        <v>208</v>
+      </c>
+      <c r="H81" t="s">
         <v>209</v>
-      </c>
-      <c r="H81" t="s">
-        <v>210</v>
       </c>
       <c r="I81">
         <v>42</v>
@@ -5055,13 +5048,13 @@
     </row>
     <row r="82" spans="6:9">
       <c r="F82" t="s">
+        <v>306</v>
+      </c>
+      <c r="G82" t="s">
         <v>307</v>
       </c>
-      <c r="G82" t="s">
-        <v>308</v>
-      </c>
       <c r="H82" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I82">
         <v>32</v>
@@ -5069,13 +5062,13 @@
     </row>
     <row r="83" spans="6:9">
       <c r="F83" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G83" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H83" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I83">
         <v>53</v>
@@ -5083,13 +5076,13 @@
     </row>
     <row r="84" spans="6:9">
       <c r="F84" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G84" t="s">
+        <v>208</v>
+      </c>
+      <c r="H84" t="s">
         <v>209</v>
-      </c>
-      <c r="H84" t="s">
-        <v>210</v>
       </c>
       <c r="I84">
         <v>42</v>
@@ -5097,13 +5090,13 @@
     </row>
     <row r="85" spans="6:9">
       <c r="F85" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G85" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H85" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I85">
         <v>53</v>
@@ -5111,13 +5104,13 @@
     </row>
     <row r="86" spans="6:9">
       <c r="F86" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G86" t="s">
+        <v>208</v>
+      </c>
+      <c r="H86" t="s">
         <v>209</v>
-      </c>
-      <c r="H86" t="s">
-        <v>210</v>
       </c>
       <c r="I86">
         <v>42</v>
@@ -5125,13 +5118,13 @@
     </row>
     <row r="87" spans="6:9">
       <c r="F87" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G87" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H87" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I87">
         <v>53</v>
@@ -5139,13 +5132,13 @@
     </row>
     <row r="88" spans="6:9">
       <c r="F88" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G88" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H88" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I88">
         <v>53</v>
